--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC42_Verify_PlaceOrder_SelfService_SingleUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC42_Verify_PlaceOrder_SelfService_SingleUser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMANLiveBranch\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DFCCF4-2FFD-41BF-A8C8-0C48E136FFFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDB7D0-0DD8-4C6F-81CF-BD2C2061D51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="113">
   <si>
     <t>TestCase</t>
   </si>
@@ -794,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1091,44 +1091,44 @@
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1137,25 +1137,21 @@
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="5" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="3"/>
@@ -1163,7 +1159,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>84</v>
@@ -1171,27 +1167,27 @@
       <c r="D30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="5" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>85</v>
@@ -1199,27 +1195,27 @@
       <c r="D32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="5" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>86</v>
@@ -1227,27 +1223,27 @@
       <c r="D34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="5" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>87</v>
@@ -1255,27 +1251,27 @@
       <c r="D36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>88</v>
@@ -1283,23 +1279,27 @@
       <c r="D38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1308,23 +1308,23 @@
     <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
@@ -1339,17 +1339,11 @@
     <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>
@@ -1357,43 +1351,43 @@
         <v>9</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3"/>
       <c r="B46" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>92</v>
@@ -1401,22 +1395,22 @@
       <c r="D48" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
-      <c r="B49" s="6" t="s">
-        <v>9</v>
+      <c r="B49" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
@@ -1424,27 +1418,42 @@
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="D52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1944,6 +1953,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2140,15 +2158,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2156,6 +2165,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2174,14 +2191,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
